--- a/biology/Médecine/Classe_ATC_A05/Classe_ATC_A05.xlsx
+++ b/biology/Médecine/Classe_ATC_A05/Classe_ATC_A05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC A05, dénommée « Traitement de la bile et du foie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA05[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC A05, dénommée « Traitement de la bile et du foie », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QA05. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique A de la classification, intitulé « Système digestif et métabolisme ».
 </t>
         </is>
       </c>
@@ -513,18 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A05AA Acides biliaires et dérivés
-A05AA01 Acide chénodésoxycholique
+          <t>A05AA Acides biliaires et dérivés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A05AA01 Acide chénodésoxycholique
 A05AA02 Acide ursodésoxycholique
 A05AA03 Acide cholique
-A05AA04 Acide obéticholique
-A05AB Préparations pour le traitement du conduit biliaire
-A05AB01 Nicotinyl méthylamide
-A05AX Autres médicaments pour le traitement de la bile
-A05AX01 Piprozoline
-A05AX02 Hymécromone
-A05AX03 Cyclobutyrol
-QA05AX90 Menbutone</t>
+A05AA04 Acide obéticholique</t>
         </is>
       </c>
     </row>
@@ -549,13 +559,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>A05A Traitement de la vésicule biliaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A05AB Préparations pour le traitement du conduit biliaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A05AB01 Nicotinyl méthylamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A05</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A05A Traitement de la vésicule biliaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A05AX Autres médicaments pour le traitement de la bile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A05AX01 Piprozoline
+A05AX02 Hymécromone
+A05AX03 Cyclobutyrol
+QA05AX90 Menbutone</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_A05</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_A05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>A05B Traitement du foie, lipotropes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>A05BA Traitement du foie
-A05BA01 Arginine glutamate
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A05BA Traitement du foie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A05BA01 Arginine glutamate
 A05BA03 Silymarine
 A05BA04 Citiolone
 A05BA05 Épomédiol
@@ -566,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Classe_ATC_A05</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classe_ATC_A05</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>A05C Associations de médicaments de la bile et de lipotropes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Vide
 </t>
